--- a/inst/extdata/xlsx/nutrient_norms.xlsx
+++ b/inst/extdata/xlsx/nutrient_norms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelsel/Documents/GitHub/ncidsq/inst/extdata/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A68EFC-4EC0-0848-8ED9-8979D3625C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6253A1-A24F-F943-9B23-906E61F62E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="560" windowWidth="23780" windowHeight="15720" xr2:uid="{BA49AFDC-956A-6842-8FBE-967449137E27}"/>
+    <workbookView xWindow="-26880" yWindow="920" windowWidth="23780" windowHeight="15720" xr2:uid="{BA49AFDC-956A-6842-8FBE-967449137E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,18 +74,6 @@
     <t>unit</t>
   </si>
   <si>
-    <t>nhanes_male</t>
-  </si>
-  <si>
-    <t>nhanes_female</t>
-  </si>
-  <si>
-    <t>recommend_males</t>
-  </si>
-  <si>
-    <t>recommend_females</t>
-  </si>
-  <si>
     <t>DSQcalc</t>
   </si>
   <si>
@@ -129,6 +117,18 @@
   </si>
   <si>
     <t>teaspoon equivalents per day</t>
+  </si>
+  <si>
+    <t>male_nhanes</t>
+  </si>
+  <si>
+    <t>female_nhanes</t>
+  </si>
+  <si>
+    <t>male_recommendations</t>
+  </si>
+  <si>
+    <t>female_recommendations</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,36 +519,36 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1138</v>
       </c>
       <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
         <v>901</v>
-      </c>
-      <c r="F2">
-        <v>1000</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -556,22 +556,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
       <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="F3">
         <v>14.4</v>
-      </c>
-      <c r="F3">
-        <v>34</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -579,22 +579,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>2.6</v>
       </c>
       <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>2.4</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -602,22 +602,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1.1000000000000001</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -625,22 +625,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>1.5</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1.3</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -648,22 +648,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>0.78</v>
       </c>
       <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
         <v>0.67</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -671,22 +671,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>2.2000000000000002</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>1.7</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -694,22 +694,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>20.7</v>
       </c>
       <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
         <v>16.5</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -717,22 +717,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>7.2</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
